--- a/Question_Set2/Role-specific skills/Microsoft Dynamics 365 Development.xlsx
+++ b/Question_Set2/Role-specific skills/Microsoft Dynamics 365 Development.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You have been asked to customize the Dynamics 365 Sales application to include a new custom field on the Contact form that will capture the contact's job title. What is the best way to accomplish this task?", 'ques_type': 2, 'options': ['Create a new extension in the Dynamics 365 Development Environment and add the new field to the Contact form using C# or JavaScript code.', 'Use the "Customize this Page" feature in Dynamics 365 to add the new field to the Contact form.', 'Utilize the "Extension Management" feature in Dynamics 365 to add the new field to the Contact form.', 'Use the "Customize Entities" feature in Dynamics 365 to add the new field to the Contact form.'], 'score': 'Create a new extension in the Dynamics 365 Development Environment and add the new field to the Contact form using C# or JavaScript code.'}, {'title': 'You have been asked to create a new custom entity in Dynamics 365 called "Equipment" that will be used to track information about your company\'s equipment. The entity should be related to the existing "Account" entity.What is the best way to accomplish this task?', 'ques_type': 2, 'options': ['Create a new entity in Dynamics 365 using the "Customize Entities" feature and manually add the relationships to the "Account" entity.', 'Create a new entity in Dynamics 365 using the "Customize Entities" feature, then create a new workflow to automatically create the relationship to the "Account" entity.', 'Create a new entity in Dynamics 365 using the "Customize Entities" feature and use the "Add Existing" option to add the relationship to the "Account" entity.', 'Create a new extension in the Dynamics 365 Development Environment and add the new entity using C# or JavaScript code, then add the relationship to the "Account" entity using code.'], 'score': 'Create a new entity in Dynamics 365 using the "Customize Entities" feature and use the "Add Existing" option to add the relationship to the "Account" entity.'}, {'title': 'You have been asked to create a new custom web service in Dynamics 365 that will be used to retrieve information about a specific account. The web service should be secure and should only be accessible to authenticated users. What is the best way to accomplish this task?', 'ques_type': 2, 'options': ['Use the Dynamics 365 Web Services feature to create a new custom web service and use Basic Authentication to secure the service.', 'Use the Dynamics 365 Web Services feature to create a new custom web service and use OAuth 2.0 to secure the service.', 'Use the Dynamics 365 Web Services feature to create a new custom web service and use JSON Web Tokens to secure the service.', 'Create a new custom web service using C# or JavaScript code and use the Dynamics 365 Web Services feature to secure the service.'], 'score': 'Create a new custom web service using C# or JavaScript code and use the Dynamics 365 Web Services feature to secure the service.'}, {'title': 'You have been asked to create a new custom page in Dynamics 365 Business Central that will be used to display a list of open sales orders for a specific customer. The page should include the ability to filter the orders by date range and sort them by order number. What is the best way to accomplish this task?', 'ques_type': 2, 'options': ['Create a new extension in the Dynamics 365 Business Central Development Environment and add a new page using C/AL code, and include the necessary filters and sorting options using C/AL code.', 'Use the "Customize Reports" feature in Dynamics 365 Business Central to create a new report that includes the necessary filters and sorting options and then create a page to display it.', 'Utilize the "Extension Management" feature in Dynamics 365 Business Central to add a custom page and include the necessary filters and sorting options.', 'Use the "Customize this Page" feature in Dynamics 365 Business Central to create a new custom page and add the necessary filters and sorting options.'], 'score': 'Create a new extension in the Dynamics 365 Business Central Development Environment and add a new page using C/AL code, and include the necessary filters and sorting options using C/AL code.'}]</t>
+    <t>questions = [
+    {
+        "title": "You have been asked to customize the Dynamics 365 Sales application to include a new custom field on the Contact form that will capture the contact's job title. What is the best way to accomplish this task?",
+        "ques_type": 2,
+        "options": [
+            "Create a new extension in the Dynamics 365 Development Environment and add the new field to the Contact form using C# or JavaScript code.",
+            "Use the \"Customize this Page\" feature in Dynamics 365 to add the new field to the Contact form.",
+            "Utilize the \"Extension Management\" feature in Dynamics 365 to add the new field to the Contact form.",
+            "Use the \"Customize Entities\" feature in Dynamics 365 to add the new field to the Contact form."
+        ],
+        "score": "Create a new extension in the Dynamics 365 Development Environment and add the new field to the Contact form using C# or JavaScript code."
+    },
+    {
+        "title": "You have been asked to create a new custom entity in Dynamics 365 called \"Equipment\" that will be used to track information about your company's equipment. The entity should be related to the existing \"Account\" entity.What is the best way to accomplish this task?",
+        "ques_type": 2,
+        "options": [
+            "Create a new entity in Dynamics 365 using the \"Customize Entities\" feature and manually add the relationships to the \"Account\" entity.",
+            "Create a new entity in Dynamics 365 using the \"Customize Entities\" feature, then create a new workflow to automatically create the relationship to the \"Account\" entity.",
+            "Create a new entity in Dynamics 365 using the \"Customize Entities\" feature and use the \"Add Existing\" option to add the relationship to the \"Account\" entity.",
+            "Create a new extension in the Dynamics 365 Development Environment and add the new entity using C# or JavaScript code, then add the relationship to the \"Account\" entity using code."
+        ],
+        "score": "Create a new entity in Dynamics 365 using the \"Customize Entities\" feature and use the \"Add Existing\" option to add the relationship to the \"Account\" entity."
+    },
+    {
+        "title": "You have been asked to create a new custom web service in Dynamics 365 that will be used to retrieve information about a specific account. The web service should be secure and should only be accessible to authenticated users. What is the best way to accomplish this task?",
+        "ques_type": 2,
+        "options": [
+            "Use the Dynamics 365 Web Services feature to create a new custom web service and use Basic Authentication to secure the service.",
+            "Use the Dynamics 365 Web Services feature to create a new custom web service and use OAuth 2.0 to secure the service.",
+            "Use the Dynamics 365 Web Services feature to create a new custom web service and use JSON Web Tokens to secure the service.",
+            "Create a new custom web service using C# or JavaScript code and use the Dynamics 365 Web Services feature to secure the service."
+        ],
+        "score": "Create a new custom web service using C# or JavaScript code and use the Dynamics 365 Web Services feature to secure the service."
+    },
+    {
+        "title": "You have been asked to create a new custom page in Dynamics 365 Business Central that will be used to display a list of open sales orders for a specific customer. The page should include the ability to filter the orders by date range and sort them by order number. What is the best way to accomplish this task?",
+        "ques_type": 2,
+        "options": [
+            "Create a new extension in the Dynamics 365 Business Central Development Environment and add a new page using C/AL code, and include the necessary filters and sorting options using C/AL code.",
+            "Use the \"Customize Reports\" feature in Dynamics 365 Business Central to create a new report that includes the necessary filters and sorting options and then create a page to display it.",
+            "Utilize the \"Extension Management\" feature in Dynamics 365 Business Central to add a custom page and include the necessary filters and sorting options.",
+            "Use the \"Customize this Page\" feature in Dynamics 365 Business Central to create a new custom page and add the necessary filters and sorting options."
+        ],
+        "score": "Create a new extension in the Dynamics 365 Business Central Development Environment and add a new page using C/AL code, and include the necessary filters and sorting options using C/AL code."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
